--- a/src/december_22_Test_Cases.xlsx
+++ b/src/december_22_Test_Cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="B Contains A" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="20">
   <si>
     <t>X_1</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>Tests</t>
+  </si>
+  <si>
+    <t>A + C + D</t>
   </si>
 </sst>
 </file>
@@ -447,7 +450,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,15 +639,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -661,7 +664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -682,7 +685,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -703,7 +706,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -730,8 +733,11 @@
       <c r="G4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -759,8 +765,12 @@
         <f>SUM(F4:F5)</f>
         <v>62</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <f>F2+G5</f>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -785,13 +795,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F7">
         <f>SUM(F4:F6)</f>
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -812,15 +822,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -837,7 +847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -858,7 +868,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -879,7 +889,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -906,8 +916,11 @@
       <c r="G4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -935,8 +948,12 @@
         <f>SUM(F4:F5)</f>
         <v>62</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <f>F2+G5</f>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -961,13 +978,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F7">
         <f>SUM(F4:F6)</f>
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -988,15 +1005,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1013,7 +1030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1034,7 +1051,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1055,7 +1072,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1082,8 +1099,11 @@
       <c r="G4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1111,8 +1131,12 @@
         <f>SUM(F4:F5)</f>
         <v>88</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <f>F2+G5</f>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1137,13 +1161,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F7">
         <f>SUM(F4:F6)</f>
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1587,7 +1611,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
